--- a/biology/Zoologie/Calodactylodes/Calodactylodes.xlsx
+++ b/biology/Zoologie/Calodactylodes/Calodactylodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calodactylodes est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calodactylodes est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Inde et au Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Inde et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et terrestres de taille moyenne. Leurs pattes sont pourvues de doigts particulièrement élancés et fins.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 septembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 septembre 2012) :
 Calodactylodes aureus (Beddome, 1870)
 Calodactylodes illingworthorum Deraniyagala, 1953</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Calodactylodes signifie « aux doigts élégants ».
 </t>
@@ -636,9 +656,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calodactylodes est un nom de remplacement pour Calodactylus créé par Beddome en 1870[3] mais préoccupé par Calodactylus Blanchard, 1850 un genre de coléoptère.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calodactylodes est un nom de remplacement pour Calodactylus créé par Beddome en 1870 mais préoccupé par Calodactylus Blanchard, 1850 un genre de coléoptère.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Strand, 1928 : Miscellanea nomenclatorica zoologica et palaeontologica, I-II. Archiv für Naturgeschichte, vol. 92, n. A8, p. 30-75.</t>
         </is>
